--- a/data/xlsx/talismans.xlsx
+++ b/data/xlsx/talismans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="425">
   <si>
     <t>id</t>
   </si>
@@ -20,7 +20,7 @@
     <t>info</t>
   </si>
   <si>
-    <t>desc</t>
+    <t>description</t>
   </si>
   <si>
     <t>weight</t>
@@ -1219,6 +1219,9 @@
   </si>
   <si>
     <t>Column 1</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>Ancestral Spirit's Horn</t>
@@ -4471,12 +4474,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -4496,7 +4499,7 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>9</v>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -4536,7 +4539,7 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>15</v>
@@ -4556,7 +4559,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -4574,7 +4577,7 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>20</v>
@@ -4594,7 +4597,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>23</v>
@@ -4614,7 +4617,7 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>26</v>
@@ -4634,7 +4637,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>29</v>
@@ -4654,7 +4657,7 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>32</v>
@@ -4674,7 +4677,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>35</v>
@@ -4692,7 +4695,7 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>37</v>
@@ -4712,7 +4715,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>40</v>
@@ -4730,7 +4733,7 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>42</v>
@@ -4748,7 +4751,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>44</v>
@@ -4766,7 +4769,7 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>46</v>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>49</v>
@@ -4806,7 +4809,7 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>52</v>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>54</v>
@@ -4842,7 +4845,7 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>56</v>
@@ -4862,7 +4865,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>59</v>
@@ -4882,7 +4885,7 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>62</v>
@@ -4900,7 +4903,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>64</v>
@@ -4920,7 +4923,7 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>67</v>
@@ -4940,7 +4943,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>70</v>
@@ -4960,7 +4963,7 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>73</v>
@@ -4980,7 +4983,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>76</v>
@@ -5000,7 +5003,7 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>79</v>
@@ -5018,7 +5021,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>81</v>
@@ -5036,7 +5039,7 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>83</v>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>86</v>
@@ -5076,7 +5079,7 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>89</v>
@@ -5096,7 +5099,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>92</v>
@@ -5116,7 +5119,7 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>95</v>
@@ -5136,7 +5139,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>98</v>
@@ -5156,7 +5159,7 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>101</v>
@@ -5176,7 +5179,7 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>104</v>
@@ -5196,7 +5199,7 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>107</v>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>110</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>112</v>
@@ -5252,7 +5255,7 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>114</v>
@@ -5272,7 +5275,7 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>117</v>
@@ -5292,7 +5295,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>117</v>
@@ -5310,7 +5313,7 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>117</v>
@@ -5328,7 +5331,7 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>122</v>
@@ -5348,7 +5351,7 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>125</v>
@@ -5368,7 +5371,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>128</v>
@@ -5388,7 +5391,7 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>131</v>
@@ -5406,7 +5409,7 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>133</v>
@@ -5424,7 +5427,7 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>135</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>138</v>
@@ -5462,7 +5465,7 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>140</v>
@@ -5482,7 +5485,7 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>143</v>
@@ -5502,7 +5505,7 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>146</v>
@@ -5522,7 +5525,7 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>149</v>
@@ -5540,7 +5543,7 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>151</v>
@@ -5558,7 +5561,7 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>153</v>
@@ -5576,7 +5579,7 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>155</v>
@@ -5596,7 +5599,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>158</v>
@@ -5616,7 +5619,7 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>161</v>
@@ -5636,7 +5639,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>164</v>
@@ -5654,7 +5657,7 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>166</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>168</v>
@@ -5692,7 +5695,7 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>171</v>
@@ -5710,7 +5713,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>173</v>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>176</v>
@@ -5748,7 +5751,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>178</v>
@@ -5766,7 +5769,7 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>180</v>
@@ -5786,7 +5789,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>183</v>
@@ -5806,7 +5809,7 @@
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>186</v>
@@ -5826,7 +5829,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>189</v>
@@ -5844,7 +5847,7 @@
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>191</v>
@@ -5864,7 +5867,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>194</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>197</v>
@@ -5904,7 +5907,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>200</v>
@@ -5924,7 +5927,7 @@
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>203</v>
@@ -5942,7 +5945,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>205</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>208</v>
@@ -5980,7 +5983,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>210</v>
@@ -6000,7 +6003,7 @@
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>213</v>
@@ -6020,7 +6023,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>216</v>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>218</v>
@@ -6056,7 +6059,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>220</v>
@@ -6076,7 +6079,7 @@
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>223</v>
@@ -6096,7 +6099,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>226</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>228</v>
@@ -6132,7 +6135,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>230</v>
@@ -6150,7 +6153,7 @@
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>232</v>
@@ -6170,7 +6173,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>194</v>
@@ -6190,7 +6193,7 @@
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>197</v>
@@ -6210,7 +6213,7 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>239</v>
@@ -6228,7 +6231,7 @@
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>241</v>
@@ -6248,7 +6251,7 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>244</v>
@@ -6268,7 +6271,7 @@
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>247</v>
@@ -6286,7 +6289,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>249</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>251</v>
@@ -6324,7 +6327,7 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>254</v>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>257</v>
@@ -6364,7 +6367,7 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>260</v>
@@ -6382,7 +6385,7 @@
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>262</v>
@@ -6400,7 +6403,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>264</v>
@@ -6420,7 +6423,7 @@
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>267</v>
@@ -6440,7 +6443,7 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>270</v>
@@ -6458,7 +6461,7 @@
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>272</v>
@@ -6476,7 +6479,7 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>274</v>
@@ -6496,7 +6499,7 @@
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>277</v>
@@ -6514,7 +6517,7 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>279</v>
@@ -6534,7 +6537,7 @@
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>282</v>
@@ -6554,7 +6557,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>285</v>
@@ -6574,7 +6577,7 @@
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>288</v>
@@ -6594,7 +6597,7 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>291</v>
@@ -6614,7 +6617,7 @@
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>294</v>
@@ -6634,7 +6637,7 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>297</v>
@@ -6652,7 +6655,7 @@
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>299</v>
@@ -6670,7 +6673,7 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>301</v>
@@ -6690,7 +6693,7 @@
     </row>
     <row r="117">
       <c r="A117" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>304</v>
